--- a/biology/Botanique/Dregea_volubilis/Dregea_volubilis.xlsx
+++ b/biology/Botanique/Dregea_volubilis/Dregea_volubilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La drégée volubile, Dregea volubilis, est une espèce de plantes à fleurs de la famille des Apocynacées originaire d'Asie du sud-est, et principalement de Chine.
 Nom chinois : 南山藤
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une liane pouvant atteindre 12 m de long, à feuilles cordées.
 Sa floraison est légèrement parfumée. Ses fleurs, portées par des cymes ombelliformes, sont verdâtres.
-Cette espèce compte 22 chromosomes[1]
+Cette espèce compte 22 chromosomes
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Distribution et utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dregea volubilis est originaire d'Asie du Sud-Est : Chine (Guangdong, Guangxi, Guizhou, Yunnan), Cambodge, Inde, Laos, Taiwan, Vietnam. 
 Son habitat d'origine est un milieu forestier ouvert.
@@ -581,14 +597,16 @@
           <t>Position taxinomique et historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Comme le genre, cette espèce appartient à la sous-famille Asclepiadoideae, tribu Marsdenieae.
-Carl von Linné le Jeune décrit en 1781 dans le genre Asclepias cette espèce : Asclepias volubilis L.f.[2]
-Ernst Gottlieb von Steudel, en reprenant le travail de Nikolaus Joseph von Jacquin, la place en 1821 dans le genre Schollia : Schollia volubilis (L.f.) Jacq. ex Steud.[3]
-Joseph Dalton Hooker, reprenant l'énumération de William Botting Hemsley, décrit cette espèce en 1883 dans le genre Dregea : Dregea volubilis[4].
-En 1923, Otto Stapf la place dans le genre Wattakaka publié par Justus Carl Hasskarl en 1857[5].
-En 1998, Ralf Omlor, dans sa thèse, publie une révision des genres de la tribu Marsdenieae[6] : la place dans le genre Dregea est confirmée.
+Carl von Linné le Jeune décrit en 1781 dans le genre Asclepias cette espèce : Asclepias volubilis L.f.
+Ernst Gottlieb von Steudel, en reprenant le travail de Nikolaus Joseph von Jacquin, la place en 1821 dans le genre Schollia : Schollia volubilis (L.f.) Jacq. ex Steud.
+Joseph Dalton Hooker, reprenant l'énumération de William Botting Hemsley, décrit cette espèce en 1883 dans le genre Dregea : Dregea volubilis.
+En 1923, Otto Stapf la place dans le genre Wattakaka publié par Justus Carl Hasskarl en 1857.
+En 1998, Ralf Omlor, dans sa thèse, publie une révision des genres de la tribu Marsdenieae : la place dans le genre Dregea est confirmée.
 Dregea volubilis compte de nombreux synonymes :
 Apocynum tiliifolium Lam. (1783)
 Asclepias volubilis L.f. (1781)
